--- a/database/tb_validator.xlsx
+++ b/database/tb_validator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>google_scholar_url</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,8 +499,10 @@
           <t>validator</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>12345678</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12345678</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -519,115 +526,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>scopus.com</t>
+          <t>scoipus.com</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sinta.com</t>
+          <t>scoipus.com</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>google.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>validator2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12345678</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ahid</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>madd.hdyt@gmail.com</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>upi</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>dosen</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>scopus.com</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>scopus.com</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>scopus.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>validator3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ahmad hidayat</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>madd@gmail.com</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>upi</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>mahasiswa</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>scopus.com</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>scopus.com</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>scopus.com</t>
+          <t>scoipus.com</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>validator</t>
         </is>
       </c>
     </row>

--- a/database/tb_validator.xlsx
+++ b/database/tb_validator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,47 +499,100 @@
           <t>validator</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ahmad hidayat</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>madd@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>upi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>dosen</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>scoipus.com</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>scoipus.com</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>scoipus.com</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>validator</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>validator_upi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>12345678</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ahmad hidayat</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>madd@gmail.com</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>validator</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>madd.hdyt@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>upi</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>dosen</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>scoipus.com</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>scoipus.com</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>scoipus.com</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>scopus.com</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>scopus.com</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>scopus.com</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>validator</t>
         </is>
